--- a/CHA/PDFChecker_refactored/CheckList.xlsx
+++ b/CHA/PDFChecker_refactored/CheckList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>filename</t>
   </si>
@@ -178,10 +178,13 @@
     <t>EXC</t>
   </si>
   <si>
-    <t>니궁쩔더라</t>
-  </si>
-  <si>
-    <t>니 스킬 쩔더라</t>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>니 데이터 쩔더라</t>
   </si>
   <si>
     <t>BC</t>
@@ -570,7 +573,7 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -581,7 +584,7 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -589,10 +592,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -600,10 +603,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -614,7 +620,7 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -622,10 +628,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -633,10 +636,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -644,10 +644,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -655,13 +652,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -669,10 +660,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -680,13 +668,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -694,10 +676,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -705,10 +684,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -716,10 +692,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -727,373 +700,271 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/CHA/PDFChecker_refactored/CheckList.xlsx
+++ b/CHA/PDFChecker_refactored/CheckList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
   <si>
     <t>filename</t>
   </si>
@@ -628,7 +628,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4">

--- a/CHA/PDFChecker_refactored/CheckList.xlsx
+++ b/CHA/PDFChecker_refactored/CheckList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>filename</t>
   </si>
@@ -639,7 +639,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4">
